--- a/bika/lims/setupdata/health/health.xlsx
+++ b/bika/lims/setupdata/health/health.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="23" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="813" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="24" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="813" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,21 +32,23 @@
     <sheet name="Calculations" sheetId="22" state="visible" r:id="rId23"/>
     <sheet name="Calculation Interim Fields" sheetId="23" state="visible" r:id="rId24"/>
     <sheet name="Batch Labels" sheetId="24" state="visible" r:id="rId25"/>
-    <sheet name="Analysis Profiles" sheetId="25" state="visible" r:id="rId26"/>
-    <sheet name="Analysis Profile Services" sheetId="26" state="visible" r:id="rId27"/>
-    <sheet name="AR Templates" sheetId="27" state="visible" r:id="rId28"/>
-    <sheet name="AR Template Analyses" sheetId="28" state="visible" r:id="rId29"/>
-    <sheet name="AR Template Partitions" sheetId="29" state="visible" r:id="rId30"/>
-    <sheet name="Reference Definitions" sheetId="30" state="visible" r:id="rId31"/>
-    <sheet name="Reference Definition Results" sheetId="31" state="visible" r:id="rId32"/>
-    <sheet name="Reference Manufacturers" sheetId="32" state="visible" r:id="rId33"/>
-    <sheet name="Reference Suppliers" sheetId="33" state="visible" r:id="rId34"/>
-    <sheet name="Reference Supplier Contacts" sheetId="34" state="visible" r:id="rId35"/>
-    <sheet name="Sampling Deviations" sheetId="35" state="visible" r:id="rId36"/>
-    <sheet name="Worksheet Templates" sheetId="36" state="visible" r:id="rId37"/>
-    <sheet name="Worksheet Template Services" sheetId="37" state="visible" r:id="rId38"/>
-    <sheet name="Worksheet Template Layouts" sheetId="38" state="visible" r:id="rId39"/>
-    <sheet name="Analysis Specifications" sheetId="39" state="visible" r:id="rId40"/>
+    <sheet name="Case Statuses" sheetId="25" state="visible" r:id="rId26"/>
+    <sheet name="Case Outcomes" sheetId="26" state="visible" r:id="rId27"/>
+    <sheet name="Analysis Profiles" sheetId="27" state="visible" r:id="rId28"/>
+    <sheet name="Analysis Profile Services" sheetId="28" state="visible" r:id="rId29"/>
+    <sheet name="AR Templates" sheetId="29" state="visible" r:id="rId30"/>
+    <sheet name="AR Template Analyses" sheetId="30" state="visible" r:id="rId31"/>
+    <sheet name="AR Template Partitions" sheetId="31" state="visible" r:id="rId32"/>
+    <sheet name="Reference Definitions" sheetId="32" state="visible" r:id="rId33"/>
+    <sheet name="Reference Definition Results" sheetId="33" state="visible" r:id="rId34"/>
+    <sheet name="Reference Manufacturers" sheetId="34" state="visible" r:id="rId35"/>
+    <sheet name="Reference Suppliers" sheetId="35" state="visible" r:id="rId36"/>
+    <sheet name="Reference Supplier Contacts" sheetId="36" state="visible" r:id="rId37"/>
+    <sheet name="Sampling Deviations" sheetId="37" state="visible" r:id="rId38"/>
+    <sheet name="Worksheet Templates" sheetId="38" state="visible" r:id="rId39"/>
+    <sheet name="Worksheet Template Services" sheetId="39" state="visible" r:id="rId40"/>
+    <sheet name="Worksheet Template Layouts" sheetId="40" state="visible" r:id="rId41"/>
+    <sheet name="Analysis Specifications" sheetId="41" state="visible" r:id="rId42"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
@@ -269,7 +271,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2592" uniqueCount="1172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2610" uniqueCount="1181">
   <si>
     <t>Instructions</t>
   </si>
@@ -3353,6 +3355,33 @@
   </si>
   <si>
     <t>Fever &amp; Neurologic</t>
+  </si>
+  <si>
+    <t>Case status titles</t>
+  </si>
+  <si>
+    <t>Single case</t>
+  </si>
+  <si>
+    <t>Outbreak</t>
+  </si>
+  <si>
+    <t>Survey</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>Case Outcome titles</t>
+  </si>
+  <si>
+    <t>Hospitalized</t>
+  </si>
+  <si>
+    <t>Died</t>
+  </si>
+  <si>
+    <t>Recovered</t>
   </si>
   <si>
     <t>ProfileKey</t>
@@ -13328,8 +13357,8 @@
   </sheetPr>
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="C10" activeCellId="0" pane="topLeft" sqref="C10"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
+      <selection activeCell="A4" activeCellId="0" pane="topLeft" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <cols>
@@ -13403,6 +13432,140 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
+      <selection activeCell="B2" activeCellId="0" pane="topLeft" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.22352941176471"/>
+  </cols>
+  <sheetData>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="true" ht="13.75" outlineLevel="0" r="1">
+      <c r="A1" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="2">
+      <c r="A2" s="0" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="3">
+      <c r="A3" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="4">
+      <c r="A4" s="0" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="5">
+      <c r="A5" s="0" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="6">
+      <c r="A6" s="0" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="7">
+      <c r="A7" s="0" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
+      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.22352941176471"/>
+  </cols>
+  <sheetData>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="true" ht="13.75" outlineLevel="0" r="1">
+      <c r="A1" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="2">
+      <c r="A2" s="0" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="3">
+      <c r="A3" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="4">
+      <c r="A4" s="0" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="5">
+      <c r="A5" s="0" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="6">
+      <c r="A6" s="0" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="7">
+      <c r="A7" s="0" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -13434,23 +13597,23 @@
         <v>256</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>1028</v>
+        <v>1037</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>1029</v>
+        <v>1038</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>1030</v>
+        <v>1039</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="2">
       <c r="A2" s="0" t="s">
-        <v>1031</v>
+        <v>1040</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="3">
       <c r="A3" s="0" t="s">
-        <v>1032</v>
+        <v>1041</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>259</v>
@@ -13459,24 +13622,24 @@
         <v>8</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>1033</v>
+        <v>1042</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>1034</v>
+        <v>1043</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>1030</v>
+        <v>1039</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="4">
       <c r="B4" s="0" t="s">
-        <v>1035</v>
+        <v>1044</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>1036</v>
+        <v>1045</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>1037</v>
+        <v>1046</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="5">
@@ -13484,32 +13647,32 @@
         <v>939</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>1038</v>
+        <v>1047</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>1039</v>
+        <v>1048</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="6">
       <c r="B6" s="0" t="s">
-        <v>1040</v>
+        <v>1049</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>1041</v>
+        <v>1050</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>1042</v>
+        <v>1051</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="7">
       <c r="B7" s="0" t="s">
-        <v>1043</v>
+        <v>1052</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>1044</v>
+        <v>1053</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>1045</v>
+        <v>1054</v>
       </c>
     </row>
   </sheetData>
@@ -13523,7 +13686,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -13543,28 +13706,28 @@
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="true" ht="13.75" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>1046</v>
+        <v>1055</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1047</v>
+        <v>1056</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="2">
       <c r="A2" s="0" t="s">
-        <v>1048</v>
+        <v>1057</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="3">
       <c r="A3" s="0" t="s">
-        <v>1046</v>
+        <v>1055</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>1049</v>
+        <v>1058</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="4">
       <c r="A4" s="0" t="s">
-        <v>1035</v>
+        <v>1044</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>857</v>
@@ -13572,7 +13735,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="5">
       <c r="A5" s="0" t="s">
-        <v>1035</v>
+        <v>1044</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>867</v>
@@ -13580,7 +13743,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="6">
       <c r="A6" s="0" t="s">
-        <v>1035</v>
+        <v>1044</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>883</v>
@@ -13588,7 +13751,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="7">
       <c r="A7" s="0" t="s">
-        <v>1035</v>
+        <v>1044</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>886</v>
@@ -13596,7 +13759,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="8">
       <c r="A8" s="0" t="s">
-        <v>1035</v>
+        <v>1044</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>888</v>
@@ -13604,7 +13767,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="9">
       <c r="A9" s="0" t="s">
-        <v>1035</v>
+        <v>1044</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>913</v>
@@ -13612,7 +13775,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="10">
       <c r="A10" s="0" t="s">
-        <v>1035</v>
+        <v>1044</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>931</v>
@@ -13660,7 +13823,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="16">
       <c r="A16" s="0" t="s">
-        <v>1040</v>
+        <v>1049</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>940</v>
@@ -13668,7 +13831,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="17">
       <c r="A17" s="0" t="s">
-        <v>1040</v>
+        <v>1049</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>946</v>
@@ -13676,7 +13839,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="18">
       <c r="A18" s="0" t="s">
-        <v>1040</v>
+        <v>1049</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>947</v>
@@ -13684,7 +13847,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="19">
       <c r="A19" s="0" t="s">
-        <v>1040</v>
+        <v>1049</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>944</v>
@@ -13692,7 +13855,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="20">
       <c r="A20" s="0" t="s">
-        <v>1043</v>
+        <v>1052</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>949</v>
@@ -13700,7 +13863,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="21">
       <c r="A21" s="0" t="s">
-        <v>1043</v>
+        <v>1052</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>951</v>
@@ -13708,7 +13871,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="22">
       <c r="A22" s="0" t="s">
-        <v>1043</v>
+        <v>1052</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>953</v>
@@ -13725,7 +13888,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -13764,16 +13927,16 @@
         <v>639</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>1050</v>
+        <v>1059</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>1051</v>
+        <v>1060</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>1049</v>
+        <v>1058</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>1030</v>
+        <v>1039</v>
       </c>
       <c r="J1" s="0" t="s">
         <v>807</v>
@@ -13781,12 +13944,12 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="2">
       <c r="A2" s="0" t="s">
-        <v>1052</v>
+        <v>1061</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="3">
       <c r="A3" s="0" t="s">
-        <v>1053</v>
+        <v>1062</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>331</v>
@@ -13801,19 +13964,19 @@
         <v>641</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>1054</v>
+        <v>1063</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>1051</v>
+        <v>1060</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>1055</v>
+        <v>1064</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>1030</v>
+        <v>1039</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>1056</v>
+        <v>1065</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="4">
@@ -13821,188 +13984,13 @@
         <v>939</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>1057</v>
+        <v>1066</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>635</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>939</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:C8"/>
-  <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.0666666666667"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.8941176470588"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.9647058823529"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.27450980392157"/>
-  </cols>
-  <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="true" ht="13.75" outlineLevel="0" r="1">
-      <c r="A1" s="0" t="s">
-        <v>1058</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>1059</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="2">
-      <c r="A2" s="0" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="3">
-      <c r="A3" s="0" t="s">
-        <v>1062</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="4">
-      <c r="A4" s="0" t="s">
-        <v>939</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>935</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="5">
-      <c r="A5" s="0" t="s">
-        <v>939</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>869</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="6">
-      <c r="A6" s="0" t="s">
-        <v>939</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>853</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="7">
-      <c r="A7" s="0" t="s">
-        <v>939</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>877</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="8">
-      <c r="A8" s="0" t="s">
-        <v>939</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>911</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.643137254902"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.34509803921569"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.0509803921569"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.3098039215686"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.6862745098039"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.27450980392157"/>
-  </cols>
-  <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="true" ht="13.75" outlineLevel="0" r="1">
-      <c r="A1" s="0" t="s">
-        <v>1058</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>1066</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="2">
-      <c r="A2" s="0" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="3">
-      <c r="A3" s="0" t="s">
-        <v>1062</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>1070</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>1071</v>
       </c>
     </row>
   </sheetData>
@@ -14210,6 +14198,181 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
+      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.0666666666667"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.8941176470588"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.9647058823529"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.27450980392157"/>
+  </cols>
+  <sheetData>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="true" ht="13.75" outlineLevel="0" r="1">
+      <c r="A1" s="0" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="2">
+      <c r="A2" s="0" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="3">
+      <c r="A3" s="0" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="4">
+      <c r="A4" s="0" t="s">
+        <v>939</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>935</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="5">
+      <c r="A5" s="0" t="s">
+        <v>939</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>869</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="6">
+      <c r="A6" s="0" t="s">
+        <v>939</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>853</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="7">
+      <c r="A7" s="0" t="s">
+        <v>939</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>877</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="8">
+      <c r="A8" s="0" t="s">
+        <v>939</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>911</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.643137254902"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.34509803921569"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.0509803921569"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.3098039215686"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.6862745098039"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.27450980392157"/>
+  </cols>
+  <sheetData>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="true" ht="13.75" outlineLevel="0" r="1">
+      <c r="A1" s="0" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="2">
+      <c r="A2" s="0" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="3">
+      <c r="A3" s="0" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
@@ -14235,46 +14398,46 @@
         <v>579</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>1072</v>
+        <v>1081</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>1073</v>
+        <v>1082</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>1074</v>
+        <v>1083</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="2">
       <c r="A2" s="0" t="s">
-        <v>1075</v>
+        <v>1084</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="3">
       <c r="A3" s="0" t="s">
-        <v>1076</v>
+        <v>1085</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>1077</v>
+        <v>1086</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>1078</v>
+        <v>1087</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>1079</v>
+        <v>1088</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>1080</v>
+        <v>1089</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="4">
       <c r="A4" s="3" t="s">
-        <v>1081</v>
+        <v>1090</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1082</v>
+        <v>1091</v>
       </c>
       <c r="C4" s="0" t="b">
         <f aca="false">FALSE()</f>
@@ -14292,10 +14455,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="5">
       <c r="A5" s="3" t="s">
-        <v>1083</v>
+        <v>1092</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1084</v>
+        <v>1093</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -14312,10 +14475,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="6">
       <c r="A6" s="3" t="s">
-        <v>1085</v>
+        <v>1094</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1086</v>
+        <v>1095</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
@@ -14332,10 +14495,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="7">
       <c r="A7" s="3" t="s">
-        <v>1087</v>
+        <v>1096</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>1088</v>
+        <v>1097</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -14361,7 +14524,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -14382,46 +14545,46 @@
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="true" ht="13.75" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>1089</v>
+        <v>1098</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1090</v>
+        <v>1099</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>1091</v>
+        <v>1100</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>1092</v>
+        <v>1101</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>1093</v>
+        <v>1102</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="2">
       <c r="A2" s="0" t="s">
-        <v>1094</v>
+        <v>1103</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="3">
       <c r="A3" s="0" t="s">
-        <v>1076</v>
+        <v>1085</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>1095</v>
+        <v>1104</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>1097</v>
+        <v>1106</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>1098</v>
+        <v>1107</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="4">
       <c r="A4" s="0" t="s">
-        <v>1087</v>
+        <v>1096</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>857</v>
@@ -14438,7 +14601,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="5">
       <c r="A5" s="0" t="s">
-        <v>1087</v>
+        <v>1096</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>867</v>
@@ -14455,7 +14618,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="6">
       <c r="A6" s="0" t="s">
-        <v>1087</v>
+        <v>1096</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>882</v>
@@ -14472,7 +14635,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="7">
       <c r="A7" s="0" t="s">
-        <v>1087</v>
+        <v>1096</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>883</v>
@@ -14489,7 +14652,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="8">
       <c r="A8" s="0" t="s">
-        <v>1087</v>
+        <v>1096</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>888</v>
@@ -14506,7 +14669,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="9">
       <c r="A9" s="0" t="s">
-        <v>1087</v>
+        <v>1096</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>886</v>
@@ -14523,7 +14686,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="10">
       <c r="A10" s="0" t="s">
-        <v>1087</v>
+        <v>1096</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>913</v>
@@ -14540,7 +14703,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="11">
       <c r="A11" s="0" t="s">
-        <v>1087</v>
+        <v>1096</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>955</v>
@@ -14557,7 +14720,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="12">
       <c r="A12" s="0" t="s">
-        <v>1087</v>
+        <v>1096</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>958</v>
@@ -14574,7 +14737,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="13">
       <c r="A13" s="0" t="s">
-        <v>1081</v>
+        <v>1090</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>955</v>
@@ -14591,7 +14754,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="14">
       <c r="A14" s="0" t="s">
-        <v>1081</v>
+        <v>1090</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>958</v>
@@ -14608,7 +14771,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="15">
       <c r="A15" s="0" t="s">
-        <v>1081</v>
+        <v>1090</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>845</v>
@@ -14625,7 +14788,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="16">
       <c r="A16" s="3" t="s">
-        <v>1083</v>
+        <v>1092</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>917</v>
@@ -14642,7 +14805,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="17">
       <c r="A17" s="3" t="s">
-        <v>1085</v>
+        <v>1094</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>917</v>
@@ -14668,7 +14831,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -14695,7 +14858,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="2">
       <c r="A2" s="0" t="s">
-        <v>1099</v>
+        <v>1108</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="3">
@@ -14708,10 +14871,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="4">
       <c r="A4" s="3" t="s">
-        <v>1100</v>
+        <v>1109</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1101</v>
+        <v>1110</v>
       </c>
       <c r="C4" s="3"/>
     </row>
@@ -14726,7 +14889,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -14813,7 +14976,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="2">
       <c r="A2" s="0" t="s">
-        <v>1102</v>
+        <v>1111</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>136</v>
@@ -14842,7 +15005,7 @@
         <v>100</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>1103</v>
+        <v>1112</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>128</v>
@@ -14851,7 +15014,7 @@
         <v>130</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>1104</v>
+        <v>1113</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>193</v>
@@ -14904,19 +15067,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="4">
       <c r="A4" s="3" t="s">
-        <v>1105</v>
+        <v>1114</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>12345</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>1106</v>
+        <v>1115</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>1107</v>
+        <v>1116</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>1108</v>
+        <v>1117</v>
       </c>
     </row>
   </sheetData>
@@ -14938,7 +15101,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -14956,7 +15119,7 @@
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="true" ht="13.75" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>1109</v>
+        <v>1118</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>169</v>
@@ -15021,7 +15184,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="2">
       <c r="A2" s="0" t="s">
-        <v>1110</v>
+        <v>1119</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>136</v>
@@ -15052,22 +15215,22 @@
         <v>171</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>1111</v>
+        <v>1120</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>191</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>1112</v>
+        <v>1121</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>1113</v>
+        <v>1122</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>1114</v>
+        <v>1123</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>1115</v>
+        <v>1124</v>
       </c>
       <c r="K3" s="0" t="s">
         <v>132</v>
@@ -15105,40 +15268,40 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="4">
       <c r="A4" s="5" t="s">
-        <v>1105</v>
+        <v>1114</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>198</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>1116</v>
+        <v>1125</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>1117</v>
+        <v>1126</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>1118</v>
+        <v>1127</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>1119</v>
+        <v>1128</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>1120</v>
+        <v>1129</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>1122</v>
+        <v>1131</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>1123</v>
+        <v>1132</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>1124</v>
+        <v>1133</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>1125</v>
+        <v>1134</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>143</v>
@@ -15150,10 +15313,10 @@
         <v>148</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>1126</v>
+        <v>1135</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>1125</v>
+        <v>1134</v>
       </c>
       <c r="S4" s="0" t="s">
         <v>143</v>
@@ -15189,7 +15352,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -15216,7 +15379,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="2">
       <c r="A2" s="0" t="s">
-        <v>1127</v>
+        <v>1136</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="3">
@@ -15229,10 +15392,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="4">
       <c r="A4" s="3" t="s">
-        <v>1128</v>
+        <v>1137</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1129</v>
+        <v>1138</v>
       </c>
     </row>
   </sheetData>
@@ -15246,7 +15409,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -15276,7 +15439,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="2">
       <c r="A2" s="0" t="s">
-        <v>1130</v>
+        <v>1139</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="3">
@@ -15292,10 +15455,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="4">
       <c r="A4" s="0" t="s">
-        <v>1131</v>
+        <v>1140</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>1132</v>
+        <v>1141</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>785</v>
@@ -15312,7 +15475,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -15331,28 +15494,28 @@
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="true" ht="13.75" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>1133</v>
+        <v>1142</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1090</v>
+        <v>1099</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="2">
       <c r="A2" s="0" t="s">
-        <v>1134</v>
+        <v>1143</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="3">
       <c r="A3" s="0" t="s">
-        <v>1135</v>
+        <v>1144</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>1063</v>
+        <v>1072</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="4">
       <c r="A4" s="0" t="s">
-        <v>1131</v>
+        <v>1140</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>958</v>
@@ -15360,7 +15523,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="5">
       <c r="A5" s="0" t="s">
-        <v>1131</v>
+        <v>1140</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>955</v>
@@ -15373,1640 +15536,6 @@
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F23"/>
-  <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.6941176470588"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.843137254902"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.1647058823529"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="14.8862745098039"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.156862745098"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.27450980392157"/>
-  </cols>
-  <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="true" ht="13.75" outlineLevel="0" r="1">
-      <c r="A1" s="0" t="s">
-        <v>1133</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>1136</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>1137</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>1138</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>1139</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>1140</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="2">
-      <c r="A2" s="0" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="3">
-      <c r="A3" s="0" t="s">
-        <v>1142</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>1143</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>677</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>1144</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>1145</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>1146</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="4">
-      <c r="A4" s="0" t="s">
-        <v>1131</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>1072</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="5">
-      <c r="A5" s="0" t="s">
-        <v>1147</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>1148</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="6">
-      <c r="A6" s="0" t="s">
-        <v>1149</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>1150</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="7">
-      <c r="A7" s="0" t="s">
-        <v>1151</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>1150</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="8">
-      <c r="A8" s="0" t="s">
-        <v>1152</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>1150</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="9">
-      <c r="A9" s="0" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>1150</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="10">
-      <c r="A10" s="0" t="s">
-        <v>1154</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>1150</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="11">
-      <c r="A11" s="0" t="s">
-        <v>1155</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>1150</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="12">
-      <c r="A12" s="0" t="s">
-        <v>1156</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>1150</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="13">
-      <c r="A13" s="0" t="s">
-        <v>1157</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>1150</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="14">
-      <c r="A14" s="0" t="s">
-        <v>1158</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>1150</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="15">
-      <c r="A15" s="0" t="s">
-        <v>1159</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>1150</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="16">
-      <c r="A16" s="0" t="s">
-        <v>1160</v>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>1150</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="17">
-      <c r="A17" s="0" t="s">
-        <v>1161</v>
-      </c>
-      <c r="B17" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>1150</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="18">
-      <c r="A18" s="0" t="s">
-        <v>1162</v>
-      </c>
-      <c r="B18" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>1150</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="19">
-      <c r="A19" s="0" t="s">
-        <v>1163</v>
-      </c>
-      <c r="B19" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>1150</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="20">
-      <c r="A20" s="0" t="s">
-        <v>1164</v>
-      </c>
-      <c r="B20" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>1150</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="21">
-      <c r="A21" s="0" t="s">
-        <v>1165</v>
-      </c>
-      <c r="B21" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>1150</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="22">
-      <c r="A22" s="0" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B22" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>1167</v>
-      </c>
-      <c r="F22" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="23">
-      <c r="A23" s="0" t="s">
-        <v>1168</v>
-      </c>
-      <c r="B23" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>1072</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F250"/>
-  <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="23.1921568627451"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="13.8313725490196"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="23.1921568627451"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="3" width="8.20392156862745"/>
-  </cols>
-  <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="true" ht="13.75" outlineLevel="0" r="1" s="6">
-      <c r="A1" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>615</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>1090</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>1092</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>1093</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="2" s="6">
-      <c r="A2" s="7" t="s">
-        <v>1170</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="3" s="6">
-      <c r="A3" s="6" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>642</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>1095</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>1097</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>1098</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>1171</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="4">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="5">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="6">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="7">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="8">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="9">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="10">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="11">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="12">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="13">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="14">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="15">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="16">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="17">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="18">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="19">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="20">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="21">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="22">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="23">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="24">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="26">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="27">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="28">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="29">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="30">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="31">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="32">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="33">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="34">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="35">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="36">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="37">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="38">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="39">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="40">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="41">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="42">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="43">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="44">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="45">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="46">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="47">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="48">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="49">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="50">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="51">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="52">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="53">
-      <c r="A53" s="5"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="54">
-      <c r="A54" s="5"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="55">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="56">
-      <c r="A56" s="5"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="57">
-      <c r="A57" s="5"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="58">
-      <c r="A58" s="5"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="59">
-      <c r="A59" s="5"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="60">
-      <c r="A60" s="5"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="61">
-      <c r="A61" s="5"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="62">
-      <c r="A62" s="5"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="63">
-      <c r="A63" s="5"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="64">
-      <c r="A64" s="5"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="65">
-      <c r="A65" s="5"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="66">
-      <c r="A66" s="5"/>
-      <c r="B66" s="5"/>
-      <c r="C66" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="67">
-      <c r="A67" s="5"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="68">
-      <c r="A68" s="5"/>
-      <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="69">
-      <c r="A69" s="5"/>
-      <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="70">
-      <c r="A70" s="5"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="71">
-      <c r="A71" s="5"/>
-      <c r="B71" s="5"/>
-      <c r="C71" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="72">
-      <c r="A72" s="5"/>
-      <c r="B72" s="5"/>
-      <c r="C72" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="73">
-      <c r="A73" s="5"/>
-      <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="74">
-      <c r="A74" s="5"/>
-      <c r="B74" s="5"/>
-      <c r="C74" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="75">
-      <c r="A75" s="5"/>
-      <c r="B75" s="5"/>
-      <c r="C75" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="76">
-      <c r="A76" s="5"/>
-      <c r="B76" s="5"/>
-      <c r="C76" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="77">
-      <c r="A77" s="5"/>
-      <c r="B77" s="5"/>
-      <c r="C77" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="78">
-      <c r="A78" s="5"/>
-      <c r="B78" s="5"/>
-      <c r="C78" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="79">
-      <c r="A79" s="5"/>
-      <c r="B79" s="5"/>
-      <c r="C79" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="80">
-      <c r="A80" s="5"/>
-      <c r="B80" s="5"/>
-      <c r="C80" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="81">
-      <c r="A81" s="5"/>
-      <c r="B81" s="5"/>
-      <c r="C81" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="82">
-      <c r="A82" s="5"/>
-      <c r="B82" s="5"/>
-      <c r="C82" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="83">
-      <c r="A83" s="5"/>
-      <c r="B83" s="5"/>
-      <c r="C83" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="84">
-      <c r="A84" s="5"/>
-      <c r="B84" s="5"/>
-      <c r="C84" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="85">
-      <c r="A85" s="5"/>
-      <c r="B85" s="5"/>
-      <c r="C85" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="86">
-      <c r="A86" s="5"/>
-      <c r="B86" s="5"/>
-      <c r="C86" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="87">
-      <c r="A87" s="5"/>
-      <c r="B87" s="5"/>
-      <c r="C87" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="88">
-      <c r="A88" s="5"/>
-      <c r="B88" s="5"/>
-      <c r="C88" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="89">
-      <c r="A89" s="5"/>
-      <c r="B89" s="5"/>
-      <c r="C89" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="90">
-      <c r="A90" s="5"/>
-      <c r="B90" s="5"/>
-      <c r="C90" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="91">
-      <c r="A91" s="5"/>
-      <c r="B91" s="5"/>
-      <c r="C91" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="92">
-      <c r="A92" s="5"/>
-      <c r="B92" s="5"/>
-      <c r="C92" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="93">
-      <c r="A93" s="5"/>
-      <c r="B93" s="5"/>
-      <c r="C93" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="94">
-      <c r="A94" s="5"/>
-      <c r="B94" s="5"/>
-      <c r="C94" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="95">
-      <c r="A95" s="5"/>
-      <c r="B95" s="5"/>
-      <c r="C95" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="96">
-      <c r="A96" s="5"/>
-      <c r="B96" s="5"/>
-      <c r="C96" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="97">
-      <c r="A97" s="5"/>
-      <c r="B97" s="5"/>
-      <c r="C97" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="98">
-      <c r="A98" s="5"/>
-      <c r="B98" s="5"/>
-      <c r="C98" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="99">
-      <c r="A99" s="5"/>
-      <c r="B99" s="5"/>
-      <c r="C99" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="100">
-      <c r="A100" s="5"/>
-      <c r="B100" s="5"/>
-      <c r="C100" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="101">
-      <c r="A101" s="5"/>
-      <c r="B101" s="5"/>
-      <c r="C101" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="102">
-      <c r="A102" s="5"/>
-      <c r="B102" s="5"/>
-      <c r="C102" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="103">
-      <c r="A103" s="5"/>
-      <c r="B103" s="5"/>
-      <c r="C103" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="104">
-      <c r="A104" s="5"/>
-      <c r="B104" s="5"/>
-      <c r="C104" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="105">
-      <c r="A105" s="5"/>
-      <c r="B105" s="5"/>
-      <c r="C105" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="106">
-      <c r="A106" s="5"/>
-      <c r="B106" s="5"/>
-      <c r="C106" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="107">
-      <c r="A107" s="5"/>
-      <c r="B107" s="5"/>
-      <c r="C107" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="108">
-      <c r="A108" s="5"/>
-      <c r="B108" s="5"/>
-      <c r="C108" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="109">
-      <c r="A109" s="5"/>
-      <c r="B109" s="5"/>
-      <c r="C109" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="110">
-      <c r="A110" s="5"/>
-      <c r="B110" s="5"/>
-      <c r="C110" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="111">
-      <c r="A111" s="5"/>
-      <c r="B111" s="5"/>
-      <c r="C111" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="112">
-      <c r="A112" s="5"/>
-      <c r="B112" s="5"/>
-      <c r="C112" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="113">
-      <c r="A113" s="5"/>
-      <c r="B113" s="5"/>
-      <c r="C113" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="114">
-      <c r="A114" s="5"/>
-      <c r="B114" s="5"/>
-      <c r="C114" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="115">
-      <c r="A115" s="5"/>
-      <c r="B115" s="5"/>
-      <c r="C115" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="116">
-      <c r="A116" s="5"/>
-      <c r="B116" s="5"/>
-      <c r="C116" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="117">
-      <c r="A117" s="5"/>
-      <c r="B117" s="5"/>
-      <c r="C117" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="118">
-      <c r="A118" s="5"/>
-      <c r="B118" s="5"/>
-      <c r="C118" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="119">
-      <c r="A119" s="5"/>
-      <c r="B119" s="5"/>
-      <c r="C119" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="120">
-      <c r="A120" s="5"/>
-      <c r="B120" s="5"/>
-      <c r="C120" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="121">
-      <c r="A121" s="5"/>
-      <c r="B121" s="5"/>
-      <c r="C121" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="122">
-      <c r="A122" s="5"/>
-      <c r="B122" s="5"/>
-      <c r="C122" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="123">
-      <c r="A123" s="5"/>
-      <c r="B123" s="5"/>
-      <c r="C123" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="124">
-      <c r="A124" s="5"/>
-      <c r="B124" s="5"/>
-      <c r="C124" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="125">
-      <c r="A125" s="5"/>
-      <c r="B125" s="5"/>
-      <c r="C125" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="126">
-      <c r="A126" s="5"/>
-      <c r="B126" s="5"/>
-      <c r="C126" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="127">
-      <c r="A127" s="5"/>
-      <c r="B127" s="5"/>
-      <c r="C127" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="128">
-      <c r="A128" s="5"/>
-      <c r="B128" s="5"/>
-      <c r="C128" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="129">
-      <c r="A129" s="5"/>
-      <c r="B129" s="5"/>
-      <c r="C129" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="130">
-      <c r="A130" s="5"/>
-      <c r="B130" s="5"/>
-      <c r="C130" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="131">
-      <c r="A131" s="5"/>
-      <c r="B131" s="5"/>
-      <c r="C131" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="132">
-      <c r="A132" s="5"/>
-      <c r="B132" s="5"/>
-      <c r="C132" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="133">
-      <c r="A133" s="5"/>
-      <c r="B133" s="5"/>
-      <c r="C133" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="134">
-      <c r="A134" s="5"/>
-      <c r="B134" s="5"/>
-      <c r="C134" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="135">
-      <c r="A135" s="5"/>
-      <c r="B135" s="5"/>
-      <c r="C135" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="136">
-      <c r="A136" s="5"/>
-      <c r="B136" s="5"/>
-      <c r="C136" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="137">
-      <c r="A137" s="5"/>
-      <c r="B137" s="5"/>
-      <c r="C137" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="138">
-      <c r="A138" s="5"/>
-      <c r="B138" s="5"/>
-      <c r="C138" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="139">
-      <c r="A139" s="5"/>
-      <c r="B139" s="5"/>
-      <c r="C139" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="140">
-      <c r="A140" s="5"/>
-      <c r="B140" s="5"/>
-      <c r="C140" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="141">
-      <c r="A141" s="5"/>
-      <c r="B141" s="5"/>
-      <c r="C141" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="142">
-      <c r="A142" s="5"/>
-      <c r="B142" s="5"/>
-      <c r="C142" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="143">
-      <c r="A143" s="5"/>
-      <c r="B143" s="5"/>
-      <c r="C143" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="144">
-      <c r="A144" s="5"/>
-      <c r="B144" s="5"/>
-      <c r="C144" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="145">
-      <c r="A145" s="5"/>
-      <c r="B145" s="5"/>
-      <c r="C145" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="146">
-      <c r="A146" s="5"/>
-      <c r="B146" s="5"/>
-      <c r="C146" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="147">
-      <c r="A147" s="5"/>
-      <c r="B147" s="5"/>
-      <c r="C147" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="148">
-      <c r="A148" s="5"/>
-      <c r="B148" s="5"/>
-      <c r="C148" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="149">
-      <c r="A149" s="5"/>
-      <c r="B149" s="5"/>
-      <c r="C149" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="150">
-      <c r="A150" s="5"/>
-      <c r="B150" s="5"/>
-      <c r="C150" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="151">
-      <c r="A151" s="5"/>
-      <c r="B151" s="5"/>
-      <c r="C151" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="152">
-      <c r="A152" s="5"/>
-      <c r="B152" s="5"/>
-      <c r="C152" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="153">
-      <c r="A153" s="5"/>
-      <c r="B153" s="5"/>
-      <c r="C153" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="154">
-      <c r="A154" s="5"/>
-      <c r="B154" s="5"/>
-      <c r="C154" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="155">
-      <c r="A155" s="5"/>
-      <c r="B155" s="5"/>
-      <c r="C155" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="156">
-      <c r="A156" s="5"/>
-      <c r="B156" s="5"/>
-      <c r="C156" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="157">
-      <c r="A157" s="5"/>
-      <c r="B157" s="5"/>
-      <c r="C157" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="158">
-      <c r="A158" s="5"/>
-      <c r="B158" s="5"/>
-      <c r="C158" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="159">
-      <c r="A159" s="5"/>
-      <c r="B159" s="5"/>
-      <c r="C159" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="160">
-      <c r="A160" s="5"/>
-      <c r="B160" s="5"/>
-      <c r="C160" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="161">
-      <c r="A161" s="5"/>
-      <c r="B161" s="5"/>
-      <c r="C161" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="162">
-      <c r="A162" s="5"/>
-      <c r="B162" s="5"/>
-      <c r="C162" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="163">
-      <c r="A163" s="5"/>
-      <c r="B163" s="5"/>
-      <c r="C163" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="164">
-      <c r="A164" s="5"/>
-      <c r="B164" s="5"/>
-      <c r="C164" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="165">
-      <c r="A165" s="5"/>
-      <c r="B165" s="5"/>
-      <c r="C165" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="166">
-      <c r="A166" s="5"/>
-      <c r="B166" s="5"/>
-      <c r="C166" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="167">
-      <c r="A167" s="5"/>
-      <c r="B167" s="5"/>
-      <c r="C167" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="168">
-      <c r="A168" s="5"/>
-      <c r="B168" s="5"/>
-      <c r="C168" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="169">
-      <c r="A169" s="5"/>
-      <c r="B169" s="5"/>
-      <c r="C169" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="170">
-      <c r="A170" s="5"/>
-      <c r="B170" s="5"/>
-      <c r="C170" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="171">
-      <c r="A171" s="5"/>
-      <c r="B171" s="5"/>
-      <c r="C171" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="172">
-      <c r="A172" s="5"/>
-      <c r="B172" s="5"/>
-      <c r="C172" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="173">
-      <c r="A173" s="5"/>
-      <c r="B173" s="5"/>
-      <c r="C173" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="174">
-      <c r="A174" s="5"/>
-      <c r="B174" s="5"/>
-      <c r="C174" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="175">
-      <c r="A175" s="5"/>
-      <c r="B175" s="5"/>
-      <c r="C175" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="176">
-      <c r="A176" s="5"/>
-      <c r="B176" s="5"/>
-      <c r="C176" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="177">
-      <c r="A177" s="5"/>
-      <c r="B177" s="5"/>
-      <c r="C177" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="178">
-      <c r="A178" s="5"/>
-      <c r="B178" s="5"/>
-      <c r="C178" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="179">
-      <c r="A179" s="5"/>
-      <c r="B179" s="5"/>
-      <c r="C179" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="180">
-      <c r="A180" s="5"/>
-      <c r="B180" s="5"/>
-      <c r="C180" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="181">
-      <c r="A181" s="5"/>
-      <c r="B181" s="5"/>
-      <c r="C181" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="182">
-      <c r="A182" s="5"/>
-      <c r="B182" s="5"/>
-      <c r="C182" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="183">
-      <c r="A183" s="5"/>
-      <c r="B183" s="5"/>
-      <c r="C183" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="184">
-      <c r="A184" s="5"/>
-      <c r="B184" s="5"/>
-      <c r="C184" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="185">
-      <c r="A185" s="5"/>
-      <c r="B185" s="5"/>
-      <c r="C185" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="186">
-      <c r="A186" s="5"/>
-      <c r="B186" s="5"/>
-      <c r="C186" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="187">
-      <c r="A187" s="5"/>
-      <c r="B187" s="5"/>
-      <c r="C187" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="188">
-      <c r="A188" s="5"/>
-      <c r="B188" s="5"/>
-      <c r="C188" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="189">
-      <c r="A189" s="5"/>
-      <c r="B189" s="5"/>
-      <c r="C189" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="190">
-      <c r="A190" s="5"/>
-      <c r="B190" s="5"/>
-      <c r="C190" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="191">
-      <c r="A191" s="5"/>
-      <c r="B191" s="5"/>
-      <c r="C191" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="192">
-      <c r="A192" s="5"/>
-      <c r="B192" s="5"/>
-      <c r="C192" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="193">
-      <c r="A193" s="5"/>
-      <c r="B193" s="5"/>
-      <c r="C193" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="194">
-      <c r="A194" s="5"/>
-      <c r="B194" s="5"/>
-      <c r="C194" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="195">
-      <c r="A195" s="5"/>
-      <c r="B195" s="5"/>
-      <c r="C195" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="196">
-      <c r="A196" s="5"/>
-      <c r="B196" s="5"/>
-      <c r="C196" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="197">
-      <c r="A197" s="5"/>
-      <c r="B197" s="5"/>
-      <c r="C197" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="198">
-      <c r="A198" s="5"/>
-      <c r="B198" s="5"/>
-      <c r="C198" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="199">
-      <c r="A199" s="5"/>
-      <c r="B199" s="5"/>
-      <c r="C199" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="200">
-      <c r="A200" s="5"/>
-      <c r="B200" s="5"/>
-      <c r="C200" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="201">
-      <c r="A201" s="5"/>
-      <c r="B201" s="5"/>
-      <c r="C201" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="202">
-      <c r="A202" s="5"/>
-      <c r="B202" s="5"/>
-      <c r="C202" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="203">
-      <c r="A203" s="5"/>
-      <c r="B203" s="5"/>
-      <c r="C203" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="204">
-      <c r="A204" s="5"/>
-      <c r="B204" s="5"/>
-      <c r="C204" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="205">
-      <c r="A205" s="5"/>
-      <c r="B205" s="5"/>
-      <c r="C205" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="206">
-      <c r="A206" s="5"/>
-      <c r="B206" s="5"/>
-      <c r="C206" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="207">
-      <c r="A207" s="5"/>
-      <c r="B207" s="5"/>
-      <c r="C207" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="208">
-      <c r="A208" s="5"/>
-      <c r="B208" s="5"/>
-      <c r="C208" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="209">
-      <c r="A209" s="5"/>
-      <c r="B209" s="5"/>
-      <c r="C209" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="210">
-      <c r="A210" s="5"/>
-      <c r="B210" s="5"/>
-      <c r="C210" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="211">
-      <c r="A211" s="5"/>
-      <c r="B211" s="5"/>
-      <c r="C211" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="212">
-      <c r="A212" s="5"/>
-      <c r="B212" s="5"/>
-      <c r="C212" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="213">
-      <c r="A213" s="5"/>
-      <c r="B213" s="5"/>
-      <c r="C213" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="214">
-      <c r="A214" s="5"/>
-      <c r="B214" s="5"/>
-      <c r="C214" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="215">
-      <c r="A215" s="5"/>
-      <c r="B215" s="5"/>
-      <c r="C215" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="216">
-      <c r="A216" s="5"/>
-      <c r="B216" s="5"/>
-      <c r="C216" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="217">
-      <c r="A217" s="5"/>
-      <c r="B217" s="5"/>
-      <c r="C217" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="218">
-      <c r="A218" s="5"/>
-      <c r="B218" s="5"/>
-      <c r="C218" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="219">
-      <c r="A219" s="5"/>
-      <c r="B219" s="5"/>
-      <c r="C219" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="220">
-      <c r="A220" s="5"/>
-      <c r="B220" s="5"/>
-      <c r="C220" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="221">
-      <c r="A221" s="5"/>
-      <c r="B221" s="5"/>
-      <c r="C221" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="222">
-      <c r="A222" s="5"/>
-      <c r="B222" s="5"/>
-      <c r="C222" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="223">
-      <c r="A223" s="5"/>
-      <c r="B223" s="5"/>
-      <c r="C223" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="224">
-      <c r="A224" s="5"/>
-      <c r="B224" s="5"/>
-      <c r="C224" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="225">
-      <c r="A225" s="5"/>
-      <c r="B225" s="5"/>
-      <c r="C225" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="226">
-      <c r="A226" s="5"/>
-      <c r="B226" s="5"/>
-      <c r="C226" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="227">
-      <c r="A227" s="5"/>
-      <c r="B227" s="5"/>
-      <c r="C227" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="228">
-      <c r="A228" s="5"/>
-      <c r="B228" s="5"/>
-      <c r="C228" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="229">
-      <c r="A229" s="5"/>
-      <c r="B229" s="5"/>
-      <c r="C229" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="230">
-      <c r="A230" s="5"/>
-      <c r="B230" s="5"/>
-      <c r="C230" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="231">
-      <c r="A231" s="5"/>
-      <c r="B231" s="5"/>
-      <c r="C231" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="232">
-      <c r="A232" s="5"/>
-      <c r="B232" s="5"/>
-      <c r="C232" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="233">
-      <c r="A233" s="5"/>
-      <c r="B233" s="5"/>
-      <c r="C233" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="234">
-      <c r="A234" s="5"/>
-      <c r="B234" s="5"/>
-      <c r="C234" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="235">
-      <c r="A235" s="5"/>
-      <c r="B235" s="5"/>
-      <c r="C235" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="236">
-      <c r="A236" s="5"/>
-      <c r="B236" s="5"/>
-      <c r="C236" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="237">
-      <c r="A237" s="5"/>
-      <c r="B237" s="5"/>
-      <c r="C237" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="238">
-      <c r="A238" s="5"/>
-      <c r="B238" s="5"/>
-      <c r="C238" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="239">
-      <c r="A239" s="5"/>
-      <c r="B239" s="5"/>
-      <c r="C239" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="240">
-      <c r="A240" s="5"/>
-      <c r="B240" s="5"/>
-      <c r="C240" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="241">
-      <c r="A241" s="5"/>
-      <c r="B241" s="5"/>
-      <c r="C241" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="242">
-      <c r="A242" s="5"/>
-      <c r="B242" s="5"/>
-      <c r="C242" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="243">
-      <c r="A243" s="5"/>
-      <c r="B243" s="5"/>
-      <c r="C243" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="244">
-      <c r="A244" s="5"/>
-      <c r="B244" s="5"/>
-      <c r="C244" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="245">
-      <c r="A245" s="5"/>
-      <c r="B245" s="5"/>
-      <c r="C245" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="246">
-      <c r="A246" s="5"/>
-      <c r="B246" s="5"/>
-      <c r="C246" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="247">
-      <c r="A247" s="5"/>
-      <c r="B247" s="5"/>
-      <c r="C247" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="248">
-      <c r="A248" s="5"/>
-      <c r="B248" s="5"/>
-      <c r="C248" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="249">
-      <c r="A249" s="5"/>
-      <c r="B249" s="5"/>
-      <c r="C249" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="250">
-      <c r="A250" s="5"/>
-      <c r="B250" s="5"/>
-      <c r="C250" s="5"/>
-    </row>
-  </sheetData>
-  <dataValidations count="3">
-    <dataValidation allowBlank="false" error="Select a valid Analysis Service from the selection list" errorTitle="Invalid entry" operator="equal" prompt="From the selection list. Populate the selection list on the 'Analysis Services' sheet" promptTitle="Select a valid Analysis Service" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C4:C250" type="list">
-      <formula1>'Analysis Services'!$A$4:$A$250</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" error="Select a valid entry from the selection list" errorTitle="Invalid Client" operator="equal" prompt="Leave this field blank if it is a  'lab' Specification that can be used by all clients.  The Client list used in the selection list is maintained on the 'Clients' sheet" promptTitle="Select a Client if the Specification belongs to a specific Client" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A4:A250" type="list">
-      <formula1>Clients!$A$4:$A$96</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="false" error="Please select a valid entry from the list" errorTitle="Invalid entry" operator="equal" prompt="Please select a valid  Sample Type from the list. The list is maintained on the 'Sample Types' sheet." promptTitle="Select a Sample Type" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B4:B250" type="list">
-      <formula1>'Sample Types'!$A$4:$A$201</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-  </dataValidations>
-  <hyperlinks>
-    <hyperlink display="Analysis Specifications" ref="A2" r:id="rId1"/>
-  </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
   </headerFooter>
 </worksheet>
 </file>
@@ -17358,6 +15887,1640 @@
       </c>
     </row>
   </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.6941176470588"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.843137254902"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.1647058823529"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="14.8862745098039"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.156862745098"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.27450980392157"/>
+  </cols>
+  <sheetData>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="true" ht="13.75" outlineLevel="0" r="1">
+      <c r="A1" s="0" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>1148</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="2">
+      <c r="A2" s="0" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="3">
+      <c r="A3" s="0" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>677</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>1154</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="4">
+      <c r="A4" s="0" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="5">
+      <c r="A5" s="0" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="6">
+      <c r="A6" s="0" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="7">
+      <c r="A7" s="0" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="8">
+      <c r="A8" s="0" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="9">
+      <c r="A9" s="0" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="10">
+      <c r="A10" s="0" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="11">
+      <c r="A11" s="0" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="12">
+      <c r="A12" s="0" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="13">
+      <c r="A13" s="0" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="14">
+      <c r="A14" s="0" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="15">
+      <c r="A15" s="0" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="16">
+      <c r="A16" s="0" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="17">
+      <c r="A17" s="0" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="18">
+      <c r="A18" s="0" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="19">
+      <c r="A19" s="0" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="20">
+      <c r="A20" s="0" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="21">
+      <c r="A21" s="0" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="22">
+      <c r="A22" s="0" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>1176</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="23">
+      <c r="A23" s="0" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F250"/>
+  <sheetViews>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="23.1921568627451"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="13.8313725490196"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="23.1921568627451"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="3" width="8.20392156862745"/>
+  </cols>
+  <sheetData>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="true" ht="13.75" outlineLevel="0" r="1" s="6">
+      <c r="A1" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="2" s="6">
+      <c r="A2" s="7" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="3" s="6">
+      <c r="A3" s="6" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>642</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="4">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="5">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="6">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="7">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="8">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="9">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="10">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="11">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="12">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="13">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="14">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="15">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="16">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="17">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="18">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="19">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="20">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="21">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="22">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="23">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="24">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="26">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="27">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="28">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="29">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="30">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="31">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="32">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="33">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="34">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="35">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="36">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="37">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="38">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="39">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="40">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="41">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="42">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="43">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="44">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="45">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="46">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="47">
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="48">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="49">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="50">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="51">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="52">
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="53">
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="54">
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="55">
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="56">
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="57">
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="58">
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="59">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="60">
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="61">
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="62">
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="63">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="64">
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="65">
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="66">
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="67">
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="68">
+      <c r="A68" s="5"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="69">
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="70">
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="71">
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="72">
+      <c r="A72" s="5"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="73">
+      <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="74">
+      <c r="A74" s="5"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="75">
+      <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="76">
+      <c r="A76" s="5"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="77">
+      <c r="A77" s="5"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="78">
+      <c r="A78" s="5"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="79">
+      <c r="A79" s="5"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="80">
+      <c r="A80" s="5"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="81">
+      <c r="A81" s="5"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="82">
+      <c r="A82" s="5"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="83">
+      <c r="A83" s="5"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="84">
+      <c r="A84" s="5"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="85">
+      <c r="A85" s="5"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="86">
+      <c r="A86" s="5"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="87">
+      <c r="A87" s="5"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="88">
+      <c r="A88" s="5"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="89">
+      <c r="A89" s="5"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="90">
+      <c r="A90" s="5"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="91">
+      <c r="A91" s="5"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="92">
+      <c r="A92" s="5"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="93">
+      <c r="A93" s="5"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="94">
+      <c r="A94" s="5"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="95">
+      <c r="A95" s="5"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="96">
+      <c r="A96" s="5"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="97">
+      <c r="A97" s="5"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="98">
+      <c r="A98" s="5"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="99">
+      <c r="A99" s="5"/>
+      <c r="B99" s="5"/>
+      <c r="C99" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="100">
+      <c r="A100" s="5"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="101">
+      <c r="A101" s="5"/>
+      <c r="B101" s="5"/>
+      <c r="C101" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="102">
+      <c r="A102" s="5"/>
+      <c r="B102" s="5"/>
+      <c r="C102" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="103">
+      <c r="A103" s="5"/>
+      <c r="B103" s="5"/>
+      <c r="C103" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="104">
+      <c r="A104" s="5"/>
+      <c r="B104" s="5"/>
+      <c r="C104" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="105">
+      <c r="A105" s="5"/>
+      <c r="B105" s="5"/>
+      <c r="C105" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="106">
+      <c r="A106" s="5"/>
+      <c r="B106" s="5"/>
+      <c r="C106" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="107">
+      <c r="A107" s="5"/>
+      <c r="B107" s="5"/>
+      <c r="C107" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="108">
+      <c r="A108" s="5"/>
+      <c r="B108" s="5"/>
+      <c r="C108" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="109">
+      <c r="A109" s="5"/>
+      <c r="B109" s="5"/>
+      <c r="C109" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="110">
+      <c r="A110" s="5"/>
+      <c r="B110" s="5"/>
+      <c r="C110" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="111">
+      <c r="A111" s="5"/>
+      <c r="B111" s="5"/>
+      <c r="C111" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="112">
+      <c r="A112" s="5"/>
+      <c r="B112" s="5"/>
+      <c r="C112" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="113">
+      <c r="A113" s="5"/>
+      <c r="B113" s="5"/>
+      <c r="C113" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="114">
+      <c r="A114" s="5"/>
+      <c r="B114" s="5"/>
+      <c r="C114" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="115">
+      <c r="A115" s="5"/>
+      <c r="B115" s="5"/>
+      <c r="C115" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="116">
+      <c r="A116" s="5"/>
+      <c r="B116" s="5"/>
+      <c r="C116" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="117">
+      <c r="A117" s="5"/>
+      <c r="B117" s="5"/>
+      <c r="C117" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="118">
+      <c r="A118" s="5"/>
+      <c r="B118" s="5"/>
+      <c r="C118" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="119">
+      <c r="A119" s="5"/>
+      <c r="B119" s="5"/>
+      <c r="C119" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="120">
+      <c r="A120" s="5"/>
+      <c r="B120" s="5"/>
+      <c r="C120" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="121">
+      <c r="A121" s="5"/>
+      <c r="B121" s="5"/>
+      <c r="C121" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="122">
+      <c r="A122" s="5"/>
+      <c r="B122" s="5"/>
+      <c r="C122" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="123">
+      <c r="A123" s="5"/>
+      <c r="B123" s="5"/>
+      <c r="C123" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="124">
+      <c r="A124" s="5"/>
+      <c r="B124" s="5"/>
+      <c r="C124" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="125">
+      <c r="A125" s="5"/>
+      <c r="B125" s="5"/>
+      <c r="C125" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="126">
+      <c r="A126" s="5"/>
+      <c r="B126" s="5"/>
+      <c r="C126" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="127">
+      <c r="A127" s="5"/>
+      <c r="B127" s="5"/>
+      <c r="C127" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="128">
+      <c r="A128" s="5"/>
+      <c r="B128" s="5"/>
+      <c r="C128" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="129">
+      <c r="A129" s="5"/>
+      <c r="B129" s="5"/>
+      <c r="C129" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="130">
+      <c r="A130" s="5"/>
+      <c r="B130" s="5"/>
+      <c r="C130" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="131">
+      <c r="A131" s="5"/>
+      <c r="B131" s="5"/>
+      <c r="C131" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="132">
+      <c r="A132" s="5"/>
+      <c r="B132" s="5"/>
+      <c r="C132" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="133">
+      <c r="A133" s="5"/>
+      <c r="B133" s="5"/>
+      <c r="C133" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="134">
+      <c r="A134" s="5"/>
+      <c r="B134" s="5"/>
+      <c r="C134" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="135">
+      <c r="A135" s="5"/>
+      <c r="B135" s="5"/>
+      <c r="C135" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="136">
+      <c r="A136" s="5"/>
+      <c r="B136" s="5"/>
+      <c r="C136" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="137">
+      <c r="A137" s="5"/>
+      <c r="B137" s="5"/>
+      <c r="C137" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="138">
+      <c r="A138" s="5"/>
+      <c r="B138" s="5"/>
+      <c r="C138" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="139">
+      <c r="A139" s="5"/>
+      <c r="B139" s="5"/>
+      <c r="C139" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="140">
+      <c r="A140" s="5"/>
+      <c r="B140" s="5"/>
+      <c r="C140" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="141">
+      <c r="A141" s="5"/>
+      <c r="B141" s="5"/>
+      <c r="C141" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="142">
+      <c r="A142" s="5"/>
+      <c r="B142" s="5"/>
+      <c r="C142" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="143">
+      <c r="A143" s="5"/>
+      <c r="B143" s="5"/>
+      <c r="C143" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="144">
+      <c r="A144" s="5"/>
+      <c r="B144" s="5"/>
+      <c r="C144" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="145">
+      <c r="A145" s="5"/>
+      <c r="B145" s="5"/>
+      <c r="C145" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="146">
+      <c r="A146" s="5"/>
+      <c r="B146" s="5"/>
+      <c r="C146" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="147">
+      <c r="A147" s="5"/>
+      <c r="B147" s="5"/>
+      <c r="C147" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="148">
+      <c r="A148" s="5"/>
+      <c r="B148" s="5"/>
+      <c r="C148" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="149">
+      <c r="A149" s="5"/>
+      <c r="B149" s="5"/>
+      <c r="C149" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="150">
+      <c r="A150" s="5"/>
+      <c r="B150" s="5"/>
+      <c r="C150" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="151">
+      <c r="A151" s="5"/>
+      <c r="B151" s="5"/>
+      <c r="C151" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="152">
+      <c r="A152" s="5"/>
+      <c r="B152" s="5"/>
+      <c r="C152" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="153">
+      <c r="A153" s="5"/>
+      <c r="B153" s="5"/>
+      <c r="C153" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="154">
+      <c r="A154" s="5"/>
+      <c r="B154" s="5"/>
+      <c r="C154" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="155">
+      <c r="A155" s="5"/>
+      <c r="B155" s="5"/>
+      <c r="C155" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="156">
+      <c r="A156" s="5"/>
+      <c r="B156" s="5"/>
+      <c r="C156" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="157">
+      <c r="A157" s="5"/>
+      <c r="B157" s="5"/>
+      <c r="C157" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="158">
+      <c r="A158" s="5"/>
+      <c r="B158" s="5"/>
+      <c r="C158" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="159">
+      <c r="A159" s="5"/>
+      <c r="B159" s="5"/>
+      <c r="C159" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="160">
+      <c r="A160" s="5"/>
+      <c r="B160" s="5"/>
+      <c r="C160" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="161">
+      <c r="A161" s="5"/>
+      <c r="B161" s="5"/>
+      <c r="C161" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="162">
+      <c r="A162" s="5"/>
+      <c r="B162" s="5"/>
+      <c r="C162" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="163">
+      <c r="A163" s="5"/>
+      <c r="B163" s="5"/>
+      <c r="C163" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="164">
+      <c r="A164" s="5"/>
+      <c r="B164" s="5"/>
+      <c r="C164" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="165">
+      <c r="A165" s="5"/>
+      <c r="B165" s="5"/>
+      <c r="C165" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="166">
+      <c r="A166" s="5"/>
+      <c r="B166" s="5"/>
+      <c r="C166" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="167">
+      <c r="A167" s="5"/>
+      <c r="B167" s="5"/>
+      <c r="C167" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="168">
+      <c r="A168" s="5"/>
+      <c r="B168" s="5"/>
+      <c r="C168" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="169">
+      <c r="A169" s="5"/>
+      <c r="B169" s="5"/>
+      <c r="C169" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="170">
+      <c r="A170" s="5"/>
+      <c r="B170" s="5"/>
+      <c r="C170" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="171">
+      <c r="A171" s="5"/>
+      <c r="B171" s="5"/>
+      <c r="C171" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="172">
+      <c r="A172" s="5"/>
+      <c r="B172" s="5"/>
+      <c r="C172" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="173">
+      <c r="A173" s="5"/>
+      <c r="B173" s="5"/>
+      <c r="C173" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="174">
+      <c r="A174" s="5"/>
+      <c r="B174" s="5"/>
+      <c r="C174" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="175">
+      <c r="A175" s="5"/>
+      <c r="B175" s="5"/>
+      <c r="C175" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="176">
+      <c r="A176" s="5"/>
+      <c r="B176" s="5"/>
+      <c r="C176" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="177">
+      <c r="A177" s="5"/>
+      <c r="B177" s="5"/>
+      <c r="C177" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="178">
+      <c r="A178" s="5"/>
+      <c r="B178" s="5"/>
+      <c r="C178" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="179">
+      <c r="A179" s="5"/>
+      <c r="B179" s="5"/>
+      <c r="C179" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="180">
+      <c r="A180" s="5"/>
+      <c r="B180" s="5"/>
+      <c r="C180" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="181">
+      <c r="A181" s="5"/>
+      <c r="B181" s="5"/>
+      <c r="C181" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="182">
+      <c r="A182" s="5"/>
+      <c r="B182" s="5"/>
+      <c r="C182" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="183">
+      <c r="A183" s="5"/>
+      <c r="B183" s="5"/>
+      <c r="C183" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="184">
+      <c r="A184" s="5"/>
+      <c r="B184" s="5"/>
+      <c r="C184" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="185">
+      <c r="A185" s="5"/>
+      <c r="B185" s="5"/>
+      <c r="C185" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="186">
+      <c r="A186" s="5"/>
+      <c r="B186" s="5"/>
+      <c r="C186" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="187">
+      <c r="A187" s="5"/>
+      <c r="B187" s="5"/>
+      <c r="C187" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="188">
+      <c r="A188" s="5"/>
+      <c r="B188" s="5"/>
+      <c r="C188" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="189">
+      <c r="A189" s="5"/>
+      <c r="B189" s="5"/>
+      <c r="C189" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="190">
+      <c r="A190" s="5"/>
+      <c r="B190" s="5"/>
+      <c r="C190" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="191">
+      <c r="A191" s="5"/>
+      <c r="B191" s="5"/>
+      <c r="C191" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="192">
+      <c r="A192" s="5"/>
+      <c r="B192" s="5"/>
+      <c r="C192" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="193">
+      <c r="A193" s="5"/>
+      <c r="B193" s="5"/>
+      <c r="C193" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="194">
+      <c r="A194" s="5"/>
+      <c r="B194" s="5"/>
+      <c r="C194" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="195">
+      <c r="A195" s="5"/>
+      <c r="B195" s="5"/>
+      <c r="C195" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="196">
+      <c r="A196" s="5"/>
+      <c r="B196" s="5"/>
+      <c r="C196" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="197">
+      <c r="A197" s="5"/>
+      <c r="B197" s="5"/>
+      <c r="C197" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="198">
+      <c r="A198" s="5"/>
+      <c r="B198" s="5"/>
+      <c r="C198" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="199">
+      <c r="A199" s="5"/>
+      <c r="B199" s="5"/>
+      <c r="C199" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="200">
+      <c r="A200" s="5"/>
+      <c r="B200" s="5"/>
+      <c r="C200" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="201">
+      <c r="A201" s="5"/>
+      <c r="B201" s="5"/>
+      <c r="C201" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="202">
+      <c r="A202" s="5"/>
+      <c r="B202" s="5"/>
+      <c r="C202" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="203">
+      <c r="A203" s="5"/>
+      <c r="B203" s="5"/>
+      <c r="C203" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="204">
+      <c r="A204" s="5"/>
+      <c r="B204" s="5"/>
+      <c r="C204" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="205">
+      <c r="A205" s="5"/>
+      <c r="B205" s="5"/>
+      <c r="C205" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="206">
+      <c r="A206" s="5"/>
+      <c r="B206" s="5"/>
+      <c r="C206" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="207">
+      <c r="A207" s="5"/>
+      <c r="B207" s="5"/>
+      <c r="C207" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="208">
+      <c r="A208" s="5"/>
+      <c r="B208" s="5"/>
+      <c r="C208" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="209">
+      <c r="A209" s="5"/>
+      <c r="B209" s="5"/>
+      <c r="C209" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="210">
+      <c r="A210" s="5"/>
+      <c r="B210" s="5"/>
+      <c r="C210" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="211">
+      <c r="A211" s="5"/>
+      <c r="B211" s="5"/>
+      <c r="C211" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="212">
+      <c r="A212" s="5"/>
+      <c r="B212" s="5"/>
+      <c r="C212" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="213">
+      <c r="A213" s="5"/>
+      <c r="B213" s="5"/>
+      <c r="C213" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="214">
+      <c r="A214" s="5"/>
+      <c r="B214" s="5"/>
+      <c r="C214" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="215">
+      <c r="A215" s="5"/>
+      <c r="B215" s="5"/>
+      <c r="C215" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="216">
+      <c r="A216" s="5"/>
+      <c r="B216" s="5"/>
+      <c r="C216" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="217">
+      <c r="A217" s="5"/>
+      <c r="B217" s="5"/>
+      <c r="C217" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="218">
+      <c r="A218" s="5"/>
+      <c r="B218" s="5"/>
+      <c r="C218" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="219">
+      <c r="A219" s="5"/>
+      <c r="B219" s="5"/>
+      <c r="C219" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="220">
+      <c r="A220" s="5"/>
+      <c r="B220" s="5"/>
+      <c r="C220" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="221">
+      <c r="A221" s="5"/>
+      <c r="B221" s="5"/>
+      <c r="C221" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="222">
+      <c r="A222" s="5"/>
+      <c r="B222" s="5"/>
+      <c r="C222" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="223">
+      <c r="A223" s="5"/>
+      <c r="B223" s="5"/>
+      <c r="C223" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="224">
+      <c r="A224" s="5"/>
+      <c r="B224" s="5"/>
+      <c r="C224" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="225">
+      <c r="A225" s="5"/>
+      <c r="B225" s="5"/>
+      <c r="C225" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="226">
+      <c r="A226" s="5"/>
+      <c r="B226" s="5"/>
+      <c r="C226" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="227">
+      <c r="A227" s="5"/>
+      <c r="B227" s="5"/>
+      <c r="C227" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="228">
+      <c r="A228" s="5"/>
+      <c r="B228" s="5"/>
+      <c r="C228" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="229">
+      <c r="A229" s="5"/>
+      <c r="B229" s="5"/>
+      <c r="C229" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="230">
+      <c r="A230" s="5"/>
+      <c r="B230" s="5"/>
+      <c r="C230" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="231">
+      <c r="A231" s="5"/>
+      <c r="B231" s="5"/>
+      <c r="C231" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="232">
+      <c r="A232" s="5"/>
+      <c r="B232" s="5"/>
+      <c r="C232" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="233">
+      <c r="A233" s="5"/>
+      <c r="B233" s="5"/>
+      <c r="C233" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="234">
+      <c r="A234" s="5"/>
+      <c r="B234" s="5"/>
+      <c r="C234" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="235">
+      <c r="A235" s="5"/>
+      <c r="B235" s="5"/>
+      <c r="C235" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="236">
+      <c r="A236" s="5"/>
+      <c r="B236" s="5"/>
+      <c r="C236" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="237">
+      <c r="A237" s="5"/>
+      <c r="B237" s="5"/>
+      <c r="C237" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="238">
+      <c r="A238" s="5"/>
+      <c r="B238" s="5"/>
+      <c r="C238" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="239">
+      <c r="A239" s="5"/>
+      <c r="B239" s="5"/>
+      <c r="C239" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="240">
+      <c r="A240" s="5"/>
+      <c r="B240" s="5"/>
+      <c r="C240" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="241">
+      <c r="A241" s="5"/>
+      <c r="B241" s="5"/>
+      <c r="C241" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="242">
+      <c r="A242" s="5"/>
+      <c r="B242" s="5"/>
+      <c r="C242" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="243">
+      <c r="A243" s="5"/>
+      <c r="B243" s="5"/>
+      <c r="C243" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="244">
+      <c r="A244" s="5"/>
+      <c r="B244" s="5"/>
+      <c r="C244" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="245">
+      <c r="A245" s="5"/>
+      <c r="B245" s="5"/>
+      <c r="C245" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="246">
+      <c r="A246" s="5"/>
+      <c r="B246" s="5"/>
+      <c r="C246" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="247">
+      <c r="A247" s="5"/>
+      <c r="B247" s="5"/>
+      <c r="C247" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="248">
+      <c r="A248" s="5"/>
+      <c r="B248" s="5"/>
+      <c r="C248" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="249">
+      <c r="A249" s="5"/>
+      <c r="B249" s="5"/>
+      <c r="C249" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="250">
+      <c r="A250" s="5"/>
+      <c r="B250" s="5"/>
+      <c r="C250" s="5"/>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation allowBlank="false" error="Select a valid Analysis Service from the selection list" errorTitle="Invalid entry" operator="equal" prompt="From the selection list. Populate the selection list on the 'Analysis Services' sheet" promptTitle="Select a valid Analysis Service" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C4:C250" type="list">
+      <formula1>'Analysis Services'!$A$4:$A$250</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" error="Select a valid entry from the selection list" errorTitle="Invalid Client" operator="equal" prompt="Leave this field blank if it is a  'lab' Specification that can be used by all clients.  The Client list used in the selection list is maintained on the 'Clients' sheet" promptTitle="Select a Client if the Specification belongs to a specific Client" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A4:A250" type="list">
+      <formula1>Clients!$A$4:$A$96</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="false" error="Please select a valid entry from the list" errorTitle="Invalid entry" operator="equal" prompt="Please select a valid  Sample Type from the list. The list is maintained on the 'Sample Types' sheet." promptTitle="Select a Sample Type" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B4:B250" type="list">
+      <formula1>'Sample Types'!$A$4:$A$201</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink display="Analysis Specifications" ref="A2" r:id="rId1"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
